--- a/AV-RK MK2 KEYBOARD/PCB FILES/AV-RK MK II.xlsx
+++ b/AV-RK MK2 KEYBOARD/PCB FILES/AV-RK MK II.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PROJECTS\4_BIG PROJECTS\ON GOING\AVlabs AV-RK MK II\PCB FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PROJECTS\4_BIG PROJECTS\ON GOING\AVlabs AV-RK MK II\AV-RK MK2 KEYBOARD\PCB FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCF945D-6EBF-4E8D-959E-C608BD42E5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA49CA0-F68A-452F-B23F-2E42CA8E82CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31A33044-1465-412F-A09E-2405D310AF56}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Keycaps and switches (splitkb.com)</t>
   </si>
   <si>
-    <t>MCU board and other shit (amazon)</t>
-  </si>
-  <si>
     <t>3D printer filament (amazon)</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>LCSC/JLCPCB: left + right</t>
+  </si>
+  <si>
+    <t>MCU board, pogo pins, and other shit (amazon)</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -158,6 +158,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720A11ED-6FE1-407C-B3F3-97D92E3198DB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,7 +503,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>148.74</v>
@@ -510,7 +511,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>45</v>
@@ -518,7 +519,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>92.32</v>
@@ -526,7 +527,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>183.43</v>
@@ -540,6 +541,9 @@
         <f>SUM(B2:B6)</f>
         <v>600.9</v>
       </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
